--- a/src/com/testdata/HalfEbayTestData3.xlsx
+++ b/src/com/testdata/HalfEbayTestData3.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -142,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +155,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,23 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +525,9 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -569,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -595,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -621,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -650,4 +660,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>